--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Projekte\08_DIZ_intern\DIZ\Broad-Consent\Transferstelle\R-Codes-App\Transferstelle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01B1DC93-5805-45A4-8FC3-7C9372C15E44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9FDF2BF-A1B0-4772-8736-DBDB800AA907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29265" yWindow="2535" windowWidth="24990" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -160,6 +160,15 @@
   </si>
   <si>
     <t>Internal medicine</t>
+  </si>
+  <si>
+    <t>Forschungsinstitut L</t>
+  </si>
+  <si>
+    <t>Bone</t>
+  </si>
+  <si>
+    <t>Surgery department</t>
   </si>
 </sst>
 </file>
@@ -511,8 +520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -632,6 +641,9 @@
       <c r="F3" t="s">
         <v>44</v>
       </c>
+      <c r="G3" t="s">
+        <v>5</v>
+      </c>
       <c r="H3">
         <v>100</v>
       </c>
@@ -670,6 +682,9 @@
       <c r="F4" t="s">
         <v>44</v>
       </c>
+      <c r="G4" t="s">
+        <v>5</v>
+      </c>
       <c r="H4">
         <v>100</v>
       </c>
@@ -708,6 +723,9 @@
       <c r="F5" t="s">
         <v>44</v>
       </c>
+      <c r="G5" t="s">
+        <v>5</v>
+      </c>
       <c r="H5">
         <v>120</v>
       </c>
@@ -721,7 +739,7 @@
         <v>45415</v>
       </c>
       <c r="L5" s="6">
-        <v>45207</v>
+        <v>45573</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -743,6 +761,9 @@
       <c r="F6" t="s">
         <v>42</v>
       </c>
+      <c r="G6" t="s">
+        <v>5</v>
+      </c>
       <c r="H6">
         <v>150</v>
       </c>
@@ -755,6 +776,9 @@
       <c r="K6" s="6">
         <v>45414</v>
       </c>
+      <c r="L6" s="6">
+        <v>45478</v>
+      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
@@ -775,6 +799,9 @@
       <c r="F7" t="s">
         <v>44</v>
       </c>
+      <c r="G7" t="s">
+        <v>5</v>
+      </c>
       <c r="H7">
         <v>160</v>
       </c>
@@ -788,7 +815,7 @@
         <v>45509</v>
       </c>
       <c r="L7" s="6">
-        <v>45509</v>
+        <v>45534</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -810,6 +837,9 @@
       <c r="F8" t="s">
         <v>44</v>
       </c>
+      <c r="G8" t="s">
+        <v>5</v>
+      </c>
       <c r="H8">
         <v>800</v>
       </c>
@@ -819,7 +849,9 @@
       <c r="J8" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="6"/>
+      <c r="K8" s="6">
+        <v>45000</v>
+      </c>
       <c r="L8" s="6">
         <v>45201</v>
       </c>
@@ -843,14 +875,23 @@
       <c r="F9" t="s">
         <v>42</v>
       </c>
+      <c r="G9" t="s">
+        <v>5</v>
+      </c>
       <c r="H9">
         <v>1000</v>
       </c>
       <c r="I9">
         <v>600</v>
       </c>
+      <c r="J9" t="s">
+        <v>17</v>
+      </c>
       <c r="K9" s="6">
         <v>45048</v>
+      </c>
+      <c r="L9" s="6">
+        <v>45414</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -872,20 +913,26 @@
       <c r="F10" t="s">
         <v>44</v>
       </c>
+      <c r="G10" t="s">
+        <v>5</v>
+      </c>
       <c r="H10">
         <v>150</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
+      <c r="J10" t="s">
+        <v>16</v>
+      </c>
       <c r="K10" s="6">
         <v>45415</v>
       </c>
       <c r="L10" s="6">
-        <v>45415</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+        <v>45575</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -904,14 +951,23 @@
       <c r="F11" t="s">
         <v>43</v>
       </c>
+      <c r="G11" t="s">
+        <v>5</v>
+      </c>
       <c r="H11">
         <v>120</v>
       </c>
       <c r="I11">
         <v>300</v>
       </c>
+      <c r="J11" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="K11" s="6">
         <v>45283</v>
+      </c>
+      <c r="L11" s="6">
+        <v>45290</v>
       </c>
       <c r="M11" s="6">
         <v>45449</v>
@@ -936,22 +992,65 @@
       <c r="F12" t="s">
         <v>42</v>
       </c>
+      <c r="G12" t="s">
+        <v>5</v>
+      </c>
       <c r="H12">
         <v>30</v>
       </c>
       <c r="I12">
         <v>30</v>
       </c>
-      <c r="K12" s="6"/>
+      <c r="J12" t="s">
+        <v>16</v>
+      </c>
+      <c r="K12" s="6">
+        <v>45296</v>
+      </c>
+      <c r="L12" s="6">
+        <v>45417</v>
+      </c>
       <c r="M12" s="6">
         <v>45355</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="K13" s="6"/>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" t="s">
+        <v>5</v>
+      </c>
+      <c r="H13">
+        <v>80</v>
+      </c>
+      <c r="I13">
+        <v>90</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K13" s="6">
+        <v>45518</v>
+      </c>
+      <c r="L13" s="6">
+        <v>45640</v>
+      </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="3">

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Projekte\08_DIZ_intern\DIZ\Broad-Consent\Transferstelle\R-Codes-App\Transferstelle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9FDF2BF-A1B0-4772-8736-DBDB800AA907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCBDCED7-A1A6-4F4C-9345-17799365AB8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28815" yWindow="3240" windowWidth="24825" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -132,12 +132,6 @@
     <t>date_of_submission</t>
   </si>
   <si>
-    <t>data_provision</t>
-  </si>
-  <si>
-    <t>archiving</t>
-  </si>
-  <si>
     <t>Heart</t>
   </si>
   <si>
@@ -169,6 +163,12 @@
   </si>
   <si>
     <t>Surgery department</t>
+  </si>
+  <si>
+    <t>date_of_archiving</t>
+  </si>
+  <si>
+    <t>date_of_data_provision</t>
   </si>
 </sst>
 </file>
@@ -520,8 +520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -535,8 +535,8 @@
     <col min="9" max="9" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="56" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.42578125" style="6" customWidth="1"/>
+    <col min="13" max="13" width="17.85546875" style="6" customWidth="1"/>
     <col min="15" max="15" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -575,10 +575,10 @@
         <v>34</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -595,10 +595,10 @@
         <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G2" t="s">
         <v>5</v>
@@ -636,10 +636,10 @@
         <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G3" t="s">
         <v>5</v>
@@ -677,10 +677,10 @@
         <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G4" t="s">
         <v>5</v>
@@ -718,10 +718,10 @@
         <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G5" t="s">
         <v>5</v>
@@ -756,10 +756,10 @@
         <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G6" t="s">
         <v>5</v>
@@ -794,10 +794,10 @@
         <v>23</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G7" t="s">
         <v>5</v>
@@ -832,10 +832,10 @@
         <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G8" t="s">
         <v>5</v>
@@ -870,10 +870,10 @@
         <v>24</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G9" t="s">
         <v>5</v>
@@ -908,10 +908,10 @@
         <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G10" t="s">
         <v>5</v>
@@ -946,10 +946,10 @@
         <v>8</v>
       </c>
       <c r="E11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" t="s">
         <v>41</v>
-      </c>
-      <c r="F11" t="s">
-        <v>43</v>
       </c>
       <c r="G11" t="s">
         <v>5</v>
@@ -987,10 +987,10 @@
         <v>25</v>
       </c>
       <c r="E12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G12" t="s">
         <v>5</v>
@@ -1025,13 +1025,13 @@
         <v>2</v>
       </c>
       <c r="D13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
         <v>45</v>
-      </c>
-      <c r="E13" t="s">
-        <v>46</v>
-      </c>
-      <c r="F13" t="s">
-        <v>47</v>
       </c>
       <c r="G13" t="s">
         <v>5</v>
